--- a/Report/Report/Network Width to Accuracy.xlsx
+++ b/Report/Report/Network Width to Accuracy.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -3649,16 +3649,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>

--- a/Report/Report/Network Width to Accuracy.xlsx
+++ b/Report/Report/Network Width to Accuracy.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\Report\Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XPS 15-9550\Git\Thesis\Report\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,21 +26,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>No of neuron</t>
   </si>
   <si>
-    <t>Standard Deviation</t>
+    <t>Linear Regression</t>
   </si>
   <si>
-    <t>Average</t>
+    <t>ELM - Standard Deviation</t>
+  </si>
+  <si>
+    <t>ELM - Average</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,7 +103,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -787,7 +790,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-918C-44F0-876B-EEBD8D389AB9}"/>
             </c:ext>
@@ -802,11 +805,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="508707208"/>
-        <c:axId val="508707536"/>
+        <c:axId val="-400777728"/>
+        <c:axId val="-400775008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="508707208"/>
+        <c:axId val="-400777728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -849,7 +852,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508707536"/>
+        <c:crossAx val="-400775008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -857,7 +860,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="508707536"/>
+        <c:axId val="-400775008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -908,7 +911,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508707208"/>
+        <c:crossAx val="-400777728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -958,7 +961,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -971,37 +974,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1016,7 +989,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Standard Deviation</c:v>
+                  <c:v>ELM - Average</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1346,307 +1319,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>22595.155637600001</c:v>
+                  <c:v>17201.203266</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2598.30308341</c:v>
+                  <c:v>2979.6621626599999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2064.1689689</c:v>
+                  <c:v>2188.6740809600001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1756.5307955999999</c:v>
+                  <c:v>2217.2367054299998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1216.5063471799999</c:v>
+                  <c:v>1858.9970358200001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1229.2314177600001</c:v>
+                  <c:v>1780.6632418300001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1316.0179200699999</c:v>
+                  <c:v>1875.4405660800001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1086.9246314699999</c:v>
+                  <c:v>1633.43073082</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1054.6725395599999</c:v>
+                  <c:v>1518.77994287</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1003.85345612</c:v>
+                  <c:v>1445.4657623799999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1077.47814724</c:v>
+                  <c:v>1507.4876926300001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>931.00726509699996</c:v>
+                  <c:v>1472.2296799200001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>815.63488341499999</c:v>
+                  <c:v>1423.6944996899999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1007.4893399600001</c:v>
+                  <c:v>1500.7457239400001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>859.31487806400003</c:v>
+                  <c:v>1502.76670926</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>912.91645006500005</c:v>
+                  <c:v>1548.4942831799999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>802.78644922399997</c:v>
+                  <c:v>1639.92414768</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>833.77268092600002</c:v>
+                  <c:v>1687.1212931</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>794.66962348899995</c:v>
+                  <c:v>1569.32162077</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>822.80545650399995</c:v>
+                  <c:v>1639.0138395900001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>752.03079957399996</c:v>
+                  <c:v>1550.5743097</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>679.55041492600003</c:v>
+                  <c:v>1403.08699611</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>793.24790232500004</c:v>
+                  <c:v>1684.15083119</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>728.16498314399996</c:v>
+                  <c:v>1317.37455387</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>638.82661138799995</c:v>
+                  <c:v>1545.1510677799999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>713.25010129199995</c:v>
+                  <c:v>1489.8453323599999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>762.30877735599995</c:v>
+                  <c:v>1487.2956841299999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>729.78497953500005</c:v>
+                  <c:v>1475.8635982000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>627.29357035299995</c:v>
+                  <c:v>1548.72690231</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>691.89017579799997</c:v>
+                  <c:v>1583.19552634</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>681.74533030500004</c:v>
+                  <c:v>1600.75015459</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>612.27236187100004</c:v>
+                  <c:v>1527.9675606200001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>675.52515152499996</c:v>
+                  <c:v>1393.0719959999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>587.89628027699996</c:v>
+                  <c:v>1469.04684468</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>602.71074159900002</c:v>
+                  <c:v>1523.59332206</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>534.09847585399996</c:v>
+                  <c:v>1556.81473084</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>537.40946851499996</c:v>
+                  <c:v>1450.1234641000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>630.14868430900003</c:v>
+                  <c:v>1524.66254299</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>612.67205169700003</c:v>
+                  <c:v>1493.4641521200001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>520.80697741699998</c:v>
+                  <c:v>1506.73496069</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>548.23373723999998</c:v>
+                  <c:v>1522.4770958300001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>484.83609288399998</c:v>
+                  <c:v>1523.32667818</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>593.204132663</c:v>
+                  <c:v>1552.5005825799999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>613.91524068800004</c:v>
+                  <c:v>1571.92139219</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>534.35155120900004</c:v>
+                  <c:v>1683.36858319</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>502.45767450699998</c:v>
+                  <c:v>1565.93666323</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>456.52001580699999</c:v>
+                  <c:v>1435.4738683600001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>476.69112831799998</c:v>
+                  <c:v>1512.2022039399999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>540.01820581100003</c:v>
+                  <c:v>1606.96580733</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>516.59183687400002</c:v>
+                  <c:v>1487.3045967099999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>532.01502333899998</c:v>
+                  <c:v>1442.93093507</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>440.02098340800001</c:v>
+                  <c:v>1558.6333636899999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>452.05050110500002</c:v>
+                  <c:v>1581.4464374700001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>472.52562956700001</c:v>
+                  <c:v>1520.8740591200001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>520.21304458099996</c:v>
+                  <c:v>1515.9484607700001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>545.75585459199999</c:v>
+                  <c:v>1628.93869221</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>508.03549598199999</c:v>
+                  <c:v>1499.29788678</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>445.60261229499997</c:v>
+                  <c:v>1558.40619107</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>509.71459684600001</c:v>
+                  <c:v>1511.1008761200001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>479.31432568700001</c:v>
+                  <c:v>1556.9090735</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>464.66356537600001</c:v>
+                  <c:v>1536.8417836399999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>419.90888382700001</c:v>
+                  <c:v>1536.53291997</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>406.17560744000002</c:v>
+                  <c:v>1498.6702456999999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>451.32380372</c:v>
+                  <c:v>1616.39949168</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>438.70693158300003</c:v>
+                  <c:v>1587.6646728200001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>422.79933824900002</c:v>
+                  <c:v>1535.80534476</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>433.34045516600003</c:v>
+                  <c:v>1576.56834643</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>406.63643501000001</c:v>
+                  <c:v>1564.5551773100001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>425.84541514400001</c:v>
+                  <c:v>1534.9562501400001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>474.09008771999999</c:v>
+                  <c:v>1616.9225758299999</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>408.58676272899999</c:v>
+                  <c:v>1467.75055776</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>409.30188333699999</c:v>
+                  <c:v>1535.8057171999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>382.23453173000001</c:v>
+                  <c:v>1552.9540875099999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>416.10227508600002</c:v>
+                  <c:v>1549.14354323</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>467.72155733900001</c:v>
+                  <c:v>1581.0419132100001</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>391.21419565899998</c:v>
+                  <c:v>1542.0912965499999</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>380.75889333600003</c:v>
+                  <c:v>1586.1274850699999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>370.729005508</c:v>
+                  <c:v>1537.2705258000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>364.12417355100001</c:v>
+                  <c:v>1576.83700015</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>404.14149113799999</c:v>
+                  <c:v>1454.42678983</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>416.52196069600001</c:v>
+                  <c:v>1597.8664907</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>409.74772094299999</c:v>
+                  <c:v>1580.69640015</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>370.81761215900002</c:v>
+                  <c:v>1538.15864889</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>401.36174583600001</c:v>
+                  <c:v>1520.2720873000001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>409.224521154</c:v>
+                  <c:v>1551.4628883099999</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>374.83449816799998</c:v>
+                  <c:v>1573.49020995</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>380.02211813700001</c:v>
+                  <c:v>1595.3929247200001</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>391.656955525</c:v>
+                  <c:v>1551.7432084300001</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>386.48261782499998</c:v>
+                  <c:v>1553.8862017399999</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>377.36941136799999</c:v>
+                  <c:v>1590.40932873</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>356.58923095300003</c:v>
+                  <c:v>1599.7430193800001</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>407.58118873900003</c:v>
+                  <c:v>1577.56844443</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>353.17775656200001</c:v>
+                  <c:v>1631.9866938299999</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>327.29968714300003</c:v>
+                  <c:v>1562.90772649</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>323.32059007999999</c:v>
+                  <c:v>1568.0513616600001</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>342.10077142</c:v>
+                  <c:v>1520.2101837499999</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>396.36097413499999</c:v>
+                  <c:v>1503.9383844700001</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>395.922877691</c:v>
+                  <c:v>1596.7880460900001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>378.20902885700002</c:v>
+                  <c:v>1569.3366464799999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-88B8-4352-B090-8C22C91569CA}"/>
             </c:ext>
@@ -1661,7 +1634,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Average</c:v>
+                  <c:v>ELM - Standard Deviation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1991,311 +1964,951 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>17201.203266</c:v>
+                  <c:v>22595.155637600001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2979.6621626599999</c:v>
+                  <c:v>2598.30308341</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2188.6740809600001</c:v>
+                  <c:v>2064.1689689</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2217.2367054299998</c:v>
+                  <c:v>1756.5307955999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1858.9970358200001</c:v>
+                  <c:v>1216.5063471799999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1780.6632418300001</c:v>
+                  <c:v>1229.2314177600001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1875.4405660800001</c:v>
+                  <c:v>1316.0179200699999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1633.43073082</c:v>
+                  <c:v>1086.9246314699999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1518.77994287</c:v>
+                  <c:v>1054.6725395599999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1445.4657623799999</c:v>
+                  <c:v>1003.85345612</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1507.4876926300001</c:v>
+                  <c:v>1077.47814724</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1472.2296799200001</c:v>
+                  <c:v>931.00726509699996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1423.6944996899999</c:v>
+                  <c:v>815.63488341499999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1500.7457239400001</c:v>
+                  <c:v>1007.4893399600001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1502.76670926</c:v>
+                  <c:v>859.31487806400003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1548.4942831799999</c:v>
+                  <c:v>912.91645006500005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1639.92414768</c:v>
+                  <c:v>802.78644922399997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1687.1212931</c:v>
+                  <c:v>833.77268092600002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1569.32162077</c:v>
+                  <c:v>794.66962348899995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1639.0138395900001</c:v>
+                  <c:v>822.80545650399995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1550.5743097</c:v>
+                  <c:v>752.03079957399996</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1403.08699611</c:v>
+                  <c:v>679.55041492600003</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1684.15083119</c:v>
+                  <c:v>793.24790232500004</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1317.37455387</c:v>
+                  <c:v>728.16498314399996</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1545.1510677799999</c:v>
+                  <c:v>638.82661138799995</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1489.8453323599999</c:v>
+                  <c:v>713.25010129199995</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1487.2956841299999</c:v>
+                  <c:v>762.30877735599995</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1475.8635982000001</c:v>
+                  <c:v>729.78497953500005</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1548.72690231</c:v>
+                  <c:v>627.29357035299995</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1583.19552634</c:v>
+                  <c:v>691.89017579799997</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1600.75015459</c:v>
+                  <c:v>681.74533030500004</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1527.9675606200001</c:v>
+                  <c:v>612.27236187100004</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1393.0719959999999</c:v>
+                  <c:v>675.52515152499996</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1469.04684468</c:v>
+                  <c:v>587.89628027699996</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1523.59332206</c:v>
+                  <c:v>602.71074159900002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1556.81473084</c:v>
+                  <c:v>534.09847585399996</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1450.1234641000001</c:v>
+                  <c:v>537.40946851499996</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1524.66254299</c:v>
+                  <c:v>630.14868430900003</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1493.4641521200001</c:v>
+                  <c:v>612.67205169700003</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1506.73496069</c:v>
+                  <c:v>520.80697741699998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1522.4770958300001</c:v>
+                  <c:v>548.23373723999998</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1523.32667818</c:v>
+                  <c:v>484.83609288399998</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1552.5005825799999</c:v>
+                  <c:v>593.204132663</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1571.92139219</c:v>
+                  <c:v>613.91524068800004</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1683.36858319</c:v>
+                  <c:v>534.35155120900004</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1565.93666323</c:v>
+                  <c:v>502.45767450699998</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1435.4738683600001</c:v>
+                  <c:v>456.52001580699999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1512.2022039399999</c:v>
+                  <c:v>476.69112831799998</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1606.96580733</c:v>
+                  <c:v>540.01820581100003</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1487.3045967099999</c:v>
+                  <c:v>516.59183687400002</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1442.93093507</c:v>
+                  <c:v>532.01502333899998</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1558.6333636899999</c:v>
+                  <c:v>440.02098340800001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1581.4464374700001</c:v>
+                  <c:v>452.05050110500002</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1520.8740591200001</c:v>
+                  <c:v>472.52562956700001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1515.9484607700001</c:v>
+                  <c:v>520.21304458099996</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1628.93869221</c:v>
+                  <c:v>545.75585459199999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1499.29788678</c:v>
+                  <c:v>508.03549598199999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1558.40619107</c:v>
+                  <c:v>445.60261229499997</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1511.1008761200001</c:v>
+                  <c:v>509.71459684600001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1556.9090735</c:v>
+                  <c:v>479.31432568700001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1536.8417836399999</c:v>
+                  <c:v>464.66356537600001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1536.53291997</c:v>
+                  <c:v>419.90888382700001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1498.6702456999999</c:v>
+                  <c:v>406.17560744000002</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1616.39949168</c:v>
+                  <c:v>451.32380372</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1587.6646728200001</c:v>
+                  <c:v>438.70693158300003</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1535.80534476</c:v>
+                  <c:v>422.79933824900002</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1576.56834643</c:v>
+                  <c:v>433.34045516600003</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1564.5551773100001</c:v>
+                  <c:v>406.63643501000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1534.9562501400001</c:v>
+                  <c:v>425.84541514400001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1616.9225758299999</c:v>
+                  <c:v>474.09008771999999</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1467.75055776</c:v>
+                  <c:v>408.58676272899999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1535.8057171999999</c:v>
+                  <c:v>409.30188333699999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1552.9540875099999</c:v>
+                  <c:v>382.23453173000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1549.14354323</c:v>
+                  <c:v>416.10227508600002</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1581.0419132100001</c:v>
+                  <c:v>467.72155733900001</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1542.0912965499999</c:v>
+                  <c:v>391.21419565899998</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1586.1274850699999</c:v>
+                  <c:v>380.75889333600003</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1537.2705258000001</c:v>
+                  <c:v>370.729005508</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1576.83700015</c:v>
+                  <c:v>364.12417355100001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1454.42678983</c:v>
+                  <c:v>404.14149113799999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1597.8664907</c:v>
+                  <c:v>416.52196069600001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1580.69640015</c:v>
+                  <c:v>409.74772094299999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1538.15864889</c:v>
+                  <c:v>370.81761215900002</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1520.2720873000001</c:v>
+                  <c:v>401.36174583600001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1551.4628883099999</c:v>
+                  <c:v>409.224521154</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1573.49020995</c:v>
+                  <c:v>374.83449816799998</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1595.3929247200001</c:v>
+                  <c:v>380.02211813700001</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1551.7432084300001</c:v>
+                  <c:v>391.656955525</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1553.8862017399999</c:v>
+                  <c:v>386.48261782499998</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1590.40932873</c:v>
+                  <c:v>377.36941136799999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1599.7430193800001</c:v>
+                  <c:v>356.58923095300003</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1577.56844443</c:v>
+                  <c:v>407.58118873900003</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1631.9866938299999</c:v>
+                  <c:v>353.17775656200001</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1562.90772649</c:v>
+                  <c:v>327.29968714300003</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1568.0513616600001</c:v>
+                  <c:v>323.32059007999999</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1520.2101837499999</c:v>
+                  <c:v>342.10077142</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1503.9383844700001</c:v>
+                  <c:v>396.36097413499999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1596.7880460900001</c:v>
+                  <c:v>395.922877691</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1569.3366464799999</c:v>
+                  <c:v>378.20902885700002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-88B8-4352-B090-8C22C91569CA}"/>
             </c:ext>
           </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Linear Regression</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7800</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8300</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8400</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8700</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9800</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1692.67825965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2306,11 +2919,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="504393256"/>
-        <c:axId val="504396208"/>
+        <c:axId val="-400767392"/>
+        <c:axId val="-400766848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="504393256"/>
+        <c:axId val="-400767392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2353,7 +2966,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504396208"/>
+        <c:crossAx val="-400766848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2361,7 +2974,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="504396208"/>
+        <c:axId val="-400766848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2412,7 +3025,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504393256"/>
+        <c:crossAx val="-400767392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2426,6 +3039,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3624,7 +4238,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E815002-D633-4745-ADCE-2DF2C6F71B6E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E815002-D633-4745-ADCE-2DF2C6F71B6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3649,23 +4263,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC7B0EAC-2B40-47A3-9D4C-649AB3330EFF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC7B0EAC-2B40-47A3-9D4C-649AB3330EFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4794,1112 +5408,1412 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
       <c r="B2">
+        <v>17201.203266</v>
+      </c>
+      <c r="C2">
         <v>22595.155637600001</v>
       </c>
-      <c r="C2">
-        <v>17201.203266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>200</v>
       </c>
       <c r="B3">
+        <v>2979.6621626599999</v>
+      </c>
+      <c r="C3">
         <v>2598.30308341</v>
       </c>
-      <c r="C3">
-        <v>2979.6621626599999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>300</v>
       </c>
       <c r="B4">
+        <v>2188.6740809600001</v>
+      </c>
+      <c r="C4">
         <v>2064.1689689</v>
       </c>
-      <c r="C4">
-        <v>2188.6740809600001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>400</v>
       </c>
       <c r="B5">
+        <v>2217.2367054299998</v>
+      </c>
+      <c r="C5">
         <v>1756.5307955999999</v>
       </c>
-      <c r="C5">
-        <v>2217.2367054299998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>500</v>
       </c>
       <c r="B6">
+        <v>1858.9970358200001</v>
+      </c>
+      <c r="C6">
         <v>1216.5063471799999</v>
       </c>
-      <c r="C6">
-        <v>1858.9970358200001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>600</v>
       </c>
       <c r="B7">
+        <v>1780.6632418300001</v>
+      </c>
+      <c r="C7">
         <v>1229.2314177600001</v>
       </c>
-      <c r="C7">
-        <v>1780.6632418300001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>700</v>
       </c>
       <c r="B8">
+        <v>1875.4405660800001</v>
+      </c>
+      <c r="C8">
         <v>1316.0179200699999</v>
       </c>
-      <c r="C8">
-        <v>1875.4405660800001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>800</v>
       </c>
       <c r="B9">
+        <v>1633.43073082</v>
+      </c>
+      <c r="C9">
         <v>1086.9246314699999</v>
       </c>
-      <c r="C9">
-        <v>1633.43073082</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>900</v>
       </c>
       <c r="B10">
+        <v>1518.77994287</v>
+      </c>
+      <c r="C10">
         <v>1054.6725395599999</v>
       </c>
-      <c r="C10">
-        <v>1518.77994287</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1000</v>
       </c>
       <c r="B11">
+        <v>1445.4657623799999</v>
+      </c>
+      <c r="C11">
         <v>1003.85345612</v>
       </c>
-      <c r="C11">
-        <v>1445.4657623799999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1100</v>
       </c>
       <c r="B12">
+        <v>1507.4876926300001</v>
+      </c>
+      <c r="C12">
         <v>1077.47814724</v>
       </c>
-      <c r="C12">
-        <v>1507.4876926300001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1200</v>
       </c>
       <c r="B13">
+        <v>1472.2296799200001</v>
+      </c>
+      <c r="C13">
         <v>931.00726509699996</v>
       </c>
-      <c r="C13">
-        <v>1472.2296799200001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1300</v>
       </c>
       <c r="B14">
+        <v>1423.6944996899999</v>
+      </c>
+      <c r="C14">
         <v>815.63488341499999</v>
       </c>
-      <c r="C14">
-        <v>1423.6944996899999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1400</v>
       </c>
       <c r="B15">
+        <v>1500.7457239400001</v>
+      </c>
+      <c r="C15">
         <v>1007.4893399600001</v>
       </c>
-      <c r="C15">
-        <v>1500.7457239400001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1500</v>
       </c>
       <c r="B16">
+        <v>1502.76670926</v>
+      </c>
+      <c r="C16">
         <v>859.31487806400003</v>
       </c>
-      <c r="C16">
-        <v>1502.76670926</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1600</v>
       </c>
       <c r="B17">
+        <v>1548.4942831799999</v>
+      </c>
+      <c r="C17">
         <v>912.91645006500005</v>
       </c>
-      <c r="C17">
-        <v>1548.4942831799999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1700</v>
       </c>
       <c r="B18">
+        <v>1639.92414768</v>
+      </c>
+      <c r="C18">
         <v>802.78644922399997</v>
       </c>
-      <c r="C18">
-        <v>1639.92414768</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1800</v>
       </c>
       <c r="B19">
+        <v>1687.1212931</v>
+      </c>
+      <c r="C19">
         <v>833.77268092600002</v>
       </c>
-      <c r="C19">
-        <v>1687.1212931</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1900</v>
       </c>
       <c r="B20">
+        <v>1569.32162077</v>
+      </c>
+      <c r="C20">
         <v>794.66962348899995</v>
       </c>
-      <c r="C20">
-        <v>1569.32162077</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2000</v>
       </c>
       <c r="B21">
+        <v>1639.0138395900001</v>
+      </c>
+      <c r="C21">
         <v>822.80545650399995</v>
       </c>
-      <c r="C21">
-        <v>1639.0138395900001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2100</v>
       </c>
       <c r="B22">
+        <v>1550.5743097</v>
+      </c>
+      <c r="C22">
         <v>752.03079957399996</v>
       </c>
-      <c r="C22">
-        <v>1550.5743097</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2200</v>
       </c>
       <c r="B23">
+        <v>1403.08699611</v>
+      </c>
+      <c r="C23">
         <v>679.55041492600003</v>
       </c>
-      <c r="C23">
-        <v>1403.08699611</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2300</v>
       </c>
       <c r="B24">
+        <v>1684.15083119</v>
+      </c>
+      <c r="C24">
         <v>793.24790232500004</v>
       </c>
-      <c r="C24">
-        <v>1684.15083119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2400</v>
       </c>
       <c r="B25">
+        <v>1317.37455387</v>
+      </c>
+      <c r="C25">
         <v>728.16498314399996</v>
       </c>
-      <c r="C25">
-        <v>1317.37455387</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2500</v>
       </c>
       <c r="B26">
+        <v>1545.1510677799999</v>
+      </c>
+      <c r="C26">
         <v>638.82661138799995</v>
       </c>
-      <c r="C26">
-        <v>1545.1510677799999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2600</v>
       </c>
       <c r="B27">
+        <v>1489.8453323599999</v>
+      </c>
+      <c r="C27">
         <v>713.25010129199995</v>
       </c>
-      <c r="C27">
-        <v>1489.8453323599999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2700</v>
       </c>
       <c r="B28">
+        <v>1487.2956841299999</v>
+      </c>
+      <c r="C28">
         <v>762.30877735599995</v>
       </c>
-      <c r="C28">
-        <v>1487.2956841299999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2800</v>
       </c>
       <c r="B29">
+        <v>1475.8635982000001</v>
+      </c>
+      <c r="C29">
         <v>729.78497953500005</v>
       </c>
-      <c r="C29">
-        <v>1475.8635982000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2900</v>
       </c>
       <c r="B30">
+        <v>1548.72690231</v>
+      </c>
+      <c r="C30">
         <v>627.29357035299995</v>
       </c>
-      <c r="C30">
-        <v>1548.72690231</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3000</v>
       </c>
       <c r="B31">
+        <v>1583.19552634</v>
+      </c>
+      <c r="C31">
         <v>691.89017579799997</v>
       </c>
-      <c r="C31">
-        <v>1583.19552634</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3100</v>
       </c>
       <c r="B32">
+        <v>1600.75015459</v>
+      </c>
+      <c r="C32">
         <v>681.74533030500004</v>
       </c>
-      <c r="C32">
-        <v>1600.75015459</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3200</v>
       </c>
       <c r="B33">
+        <v>1527.9675606200001</v>
+      </c>
+      <c r="C33">
         <v>612.27236187100004</v>
       </c>
-      <c r="C33">
-        <v>1527.9675606200001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3300</v>
       </c>
       <c r="B34">
+        <v>1393.0719959999999</v>
+      </c>
+      <c r="C34">
         <v>675.52515152499996</v>
       </c>
-      <c r="C34">
-        <v>1393.0719959999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3400</v>
       </c>
       <c r="B35">
+        <v>1469.04684468</v>
+      </c>
+      <c r="C35">
         <v>587.89628027699996</v>
       </c>
-      <c r="C35">
-        <v>1469.04684468</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3500</v>
       </c>
       <c r="B36">
+        <v>1523.59332206</v>
+      </c>
+      <c r="C36">
         <v>602.71074159900002</v>
       </c>
-      <c r="C36">
-        <v>1523.59332206</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3600</v>
       </c>
       <c r="B37">
+        <v>1556.81473084</v>
+      </c>
+      <c r="C37">
         <v>534.09847585399996</v>
       </c>
-      <c r="C37">
-        <v>1556.81473084</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3700</v>
       </c>
       <c r="B38">
+        <v>1450.1234641000001</v>
+      </c>
+      <c r="C38">
         <v>537.40946851499996</v>
       </c>
-      <c r="C38">
-        <v>1450.1234641000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3800</v>
       </c>
       <c r="B39">
+        <v>1524.66254299</v>
+      </c>
+      <c r="C39">
         <v>630.14868430900003</v>
       </c>
-      <c r="C39">
-        <v>1524.66254299</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3900</v>
       </c>
       <c r="B40">
+        <v>1493.4641521200001</v>
+      </c>
+      <c r="C40">
         <v>612.67205169700003</v>
       </c>
-      <c r="C40">
-        <v>1493.4641521200001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4000</v>
       </c>
       <c r="B41">
+        <v>1506.73496069</v>
+      </c>
+      <c r="C41">
         <v>520.80697741699998</v>
       </c>
-      <c r="C41">
-        <v>1506.73496069</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4100</v>
       </c>
       <c r="B42">
+        <v>1522.4770958300001</v>
+      </c>
+      <c r="C42">
         <v>548.23373723999998</v>
       </c>
-      <c r="C42">
-        <v>1522.4770958300001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4200</v>
       </c>
       <c r="B43">
+        <v>1523.32667818</v>
+      </c>
+      <c r="C43">
         <v>484.83609288399998</v>
       </c>
-      <c r="C43">
-        <v>1523.32667818</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4300</v>
       </c>
       <c r="B44">
+        <v>1552.5005825799999</v>
+      </c>
+      <c r="C44">
         <v>593.204132663</v>
       </c>
-      <c r="C44">
-        <v>1552.5005825799999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4400</v>
       </c>
       <c r="B45">
+        <v>1571.92139219</v>
+      </c>
+      <c r="C45">
         <v>613.91524068800004</v>
       </c>
-      <c r="C45">
-        <v>1571.92139219</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4500</v>
       </c>
       <c r="B46">
+        <v>1683.36858319</v>
+      </c>
+      <c r="C46">
         <v>534.35155120900004</v>
       </c>
-      <c r="C46">
-        <v>1683.36858319</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4600</v>
       </c>
       <c r="B47">
+        <v>1565.93666323</v>
+      </c>
+      <c r="C47">
         <v>502.45767450699998</v>
       </c>
-      <c r="C47">
-        <v>1565.93666323</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4700</v>
       </c>
       <c r="B48">
+        <v>1435.4738683600001</v>
+      </c>
+      <c r="C48">
         <v>456.52001580699999</v>
       </c>
-      <c r="C48">
-        <v>1435.4738683600001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4800</v>
       </c>
       <c r="B49">
+        <v>1512.2022039399999</v>
+      </c>
+      <c r="C49">
         <v>476.69112831799998</v>
       </c>
-      <c r="C49">
-        <v>1512.2022039399999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4900</v>
       </c>
       <c r="B50">
+        <v>1606.96580733</v>
+      </c>
+      <c r="C50">
         <v>540.01820581100003</v>
       </c>
-      <c r="C50">
-        <v>1606.96580733</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5000</v>
       </c>
       <c r="B51">
+        <v>1487.3045967099999</v>
+      </c>
+      <c r="C51">
         <v>516.59183687400002</v>
       </c>
-      <c r="C51">
-        <v>1487.3045967099999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5100</v>
       </c>
       <c r="B52">
+        <v>1442.93093507</v>
+      </c>
+      <c r="C52">
         <v>532.01502333899998</v>
       </c>
-      <c r="C52">
-        <v>1442.93093507</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5200</v>
       </c>
       <c r="B53">
+        <v>1558.6333636899999</v>
+      </c>
+      <c r="C53">
         <v>440.02098340800001</v>
       </c>
-      <c r="C53">
-        <v>1558.6333636899999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5300</v>
       </c>
       <c r="B54">
+        <v>1581.4464374700001</v>
+      </c>
+      <c r="C54">
         <v>452.05050110500002</v>
       </c>
-      <c r="C54">
-        <v>1581.4464374700001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5400</v>
       </c>
       <c r="B55">
+        <v>1520.8740591200001</v>
+      </c>
+      <c r="C55">
         <v>472.52562956700001</v>
       </c>
-      <c r="C55">
-        <v>1520.8740591200001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5500</v>
       </c>
       <c r="B56">
+        <v>1515.9484607700001</v>
+      </c>
+      <c r="C56">
         <v>520.21304458099996</v>
       </c>
-      <c r="C56">
-        <v>1515.9484607700001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5600</v>
       </c>
       <c r="B57">
+        <v>1628.93869221</v>
+      </c>
+      <c r="C57">
         <v>545.75585459199999</v>
       </c>
-      <c r="C57">
-        <v>1628.93869221</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5700</v>
       </c>
       <c r="B58">
+        <v>1499.29788678</v>
+      </c>
+      <c r="C58">
         <v>508.03549598199999</v>
       </c>
-      <c r="C58">
-        <v>1499.29788678</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5800</v>
       </c>
       <c r="B59">
+        <v>1558.40619107</v>
+      </c>
+      <c r="C59">
         <v>445.60261229499997</v>
       </c>
-      <c r="C59">
-        <v>1558.40619107</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5900</v>
       </c>
       <c r="B60">
+        <v>1511.1008761200001</v>
+      </c>
+      <c r="C60">
         <v>509.71459684600001</v>
       </c>
-      <c r="C60">
-        <v>1511.1008761200001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6000</v>
       </c>
       <c r="B61">
+        <v>1556.9090735</v>
+      </c>
+      <c r="C61">
         <v>479.31432568700001</v>
       </c>
-      <c r="C61">
-        <v>1556.9090735</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>6100</v>
       </c>
       <c r="B62">
+        <v>1536.8417836399999</v>
+      </c>
+      <c r="C62">
         <v>464.66356537600001</v>
       </c>
-      <c r="C62">
-        <v>1536.8417836399999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>6200</v>
       </c>
       <c r="B63">
+        <v>1536.53291997</v>
+      </c>
+      <c r="C63">
         <v>419.90888382700001</v>
       </c>
-      <c r="C63">
-        <v>1536.53291997</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6300</v>
       </c>
       <c r="B64">
+        <v>1498.6702456999999</v>
+      </c>
+      <c r="C64">
         <v>406.17560744000002</v>
       </c>
-      <c r="C64">
-        <v>1498.6702456999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>6400</v>
       </c>
       <c r="B65">
+        <v>1616.39949168</v>
+      </c>
+      <c r="C65">
         <v>451.32380372</v>
       </c>
-      <c r="C65">
-        <v>1616.39949168</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>6500</v>
       </c>
       <c r="B66">
+        <v>1587.6646728200001</v>
+      </c>
+      <c r="C66">
         <v>438.70693158300003</v>
       </c>
-      <c r="C66">
-        <v>1587.6646728200001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>6600</v>
       </c>
       <c r="B67">
+        <v>1535.80534476</v>
+      </c>
+      <c r="C67">
         <v>422.79933824900002</v>
       </c>
-      <c r="C67">
-        <v>1535.80534476</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>6700</v>
       </c>
       <c r="B68">
+        <v>1576.56834643</v>
+      </c>
+      <c r="C68">
         <v>433.34045516600003</v>
       </c>
-      <c r="C68">
-        <v>1576.56834643</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>6800</v>
       </c>
       <c r="B69">
+        <v>1564.5551773100001</v>
+      </c>
+      <c r="C69">
         <v>406.63643501000001</v>
       </c>
-      <c r="C69">
-        <v>1564.5551773100001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>6900</v>
       </c>
       <c r="B70">
+        <v>1534.9562501400001</v>
+      </c>
+      <c r="C70">
         <v>425.84541514400001</v>
       </c>
-      <c r="C70">
-        <v>1534.9562501400001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>7000</v>
       </c>
       <c r="B71">
+        <v>1616.9225758299999</v>
+      </c>
+      <c r="C71">
         <v>474.09008771999999</v>
       </c>
-      <c r="C71">
-        <v>1616.9225758299999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>7100</v>
       </c>
       <c r="B72">
+        <v>1467.75055776</v>
+      </c>
+      <c r="C72">
         <v>408.58676272899999</v>
       </c>
-      <c r="C72">
-        <v>1467.75055776</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>7200</v>
       </c>
       <c r="B73">
+        <v>1535.8057171999999</v>
+      </c>
+      <c r="C73">
         <v>409.30188333699999</v>
       </c>
-      <c r="C73">
-        <v>1535.8057171999999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>7300</v>
       </c>
       <c r="B74">
+        <v>1552.9540875099999</v>
+      </c>
+      <c r="C74">
         <v>382.23453173000001</v>
       </c>
-      <c r="C74">
-        <v>1552.9540875099999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>7400</v>
       </c>
       <c r="B75">
+        <v>1549.14354323</v>
+      </c>
+      <c r="C75">
         <v>416.10227508600002</v>
       </c>
-      <c r="C75">
-        <v>1549.14354323</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>7500</v>
       </c>
       <c r="B76">
+        <v>1581.0419132100001</v>
+      </c>
+      <c r="C76">
         <v>467.72155733900001</v>
       </c>
-      <c r="C76">
-        <v>1581.0419132100001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>7600</v>
       </c>
       <c r="B77">
+        <v>1542.0912965499999</v>
+      </c>
+      <c r="C77">
         <v>391.21419565899998</v>
       </c>
-      <c r="C77">
-        <v>1542.0912965499999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>7700</v>
       </c>
       <c r="B78">
+        <v>1586.1274850699999</v>
+      </c>
+      <c r="C78">
         <v>380.75889333600003</v>
       </c>
-      <c r="C78">
-        <v>1586.1274850699999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>7800</v>
       </c>
       <c r="B79">
+        <v>1537.2705258000001</v>
+      </c>
+      <c r="C79">
         <v>370.729005508</v>
       </c>
-      <c r="C79">
-        <v>1537.2705258000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>7900</v>
       </c>
       <c r="B80">
+        <v>1576.83700015</v>
+      </c>
+      <c r="C80">
         <v>364.12417355100001</v>
       </c>
-      <c r="C80">
-        <v>1576.83700015</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>8000</v>
       </c>
       <c r="B81">
+        <v>1454.42678983</v>
+      </c>
+      <c r="C81">
         <v>404.14149113799999</v>
       </c>
-      <c r="C81">
-        <v>1454.42678983</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>8100</v>
       </c>
       <c r="B82">
+        <v>1597.8664907</v>
+      </c>
+      <c r="C82">
         <v>416.52196069600001</v>
       </c>
-      <c r="C82">
-        <v>1597.8664907</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>8200</v>
       </c>
       <c r="B83">
+        <v>1580.69640015</v>
+      </c>
+      <c r="C83">
         <v>409.74772094299999</v>
       </c>
-      <c r="C83">
-        <v>1580.69640015</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>8300</v>
       </c>
       <c r="B84">
+        <v>1538.15864889</v>
+      </c>
+      <c r="C84">
         <v>370.81761215900002</v>
       </c>
-      <c r="C84">
-        <v>1538.15864889</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>8400</v>
       </c>
       <c r="B85">
+        <v>1520.2720873000001</v>
+      </c>
+      <c r="C85">
         <v>401.36174583600001</v>
       </c>
-      <c r="C85">
-        <v>1520.2720873000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>8500</v>
       </c>
       <c r="B86">
+        <v>1551.4628883099999</v>
+      </c>
+      <c r="C86">
         <v>409.224521154</v>
       </c>
-      <c r="C86">
-        <v>1551.4628883099999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>8600</v>
       </c>
       <c r="B87">
+        <v>1573.49020995</v>
+      </c>
+      <c r="C87">
         <v>374.83449816799998</v>
       </c>
-      <c r="C87">
-        <v>1573.49020995</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>8700</v>
       </c>
       <c r="B88">
+        <v>1595.3929247200001</v>
+      </c>
+      <c r="C88">
         <v>380.02211813700001</v>
       </c>
-      <c r="C88">
-        <v>1595.3929247200001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>8800</v>
       </c>
       <c r="B89">
+        <v>1551.7432084300001</v>
+      </c>
+      <c r="C89">
         <v>391.656955525</v>
       </c>
-      <c r="C89">
-        <v>1551.7432084300001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>8900</v>
       </c>
       <c r="B90">
+        <v>1553.8862017399999</v>
+      </c>
+      <c r="C90">
         <v>386.48261782499998</v>
       </c>
-      <c r="C90">
-        <v>1553.8862017399999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>9000</v>
       </c>
       <c r="B91">
+        <v>1590.40932873</v>
+      </c>
+      <c r="C91">
         <v>377.36941136799999</v>
       </c>
-      <c r="C91">
-        <v>1590.40932873</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>9100</v>
       </c>
       <c r="B92">
+        <v>1599.7430193800001</v>
+      </c>
+      <c r="C92">
         <v>356.58923095300003</v>
       </c>
-      <c r="C92">
-        <v>1599.7430193800001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>9200</v>
       </c>
       <c r="B93">
+        <v>1577.56844443</v>
+      </c>
+      <c r="C93">
         <v>407.58118873900003</v>
       </c>
-      <c r="C93">
-        <v>1577.56844443</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>9300</v>
       </c>
       <c r="B94">
+        <v>1631.9866938299999</v>
+      </c>
+      <c r="C94">
         <v>353.17775656200001</v>
       </c>
-      <c r="C94">
-        <v>1631.9866938299999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>9400</v>
       </c>
       <c r="B95">
+        <v>1562.90772649</v>
+      </c>
+      <c r="C95">
         <v>327.29968714300003</v>
       </c>
-      <c r="C95">
-        <v>1562.90772649</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>9500</v>
       </c>
       <c r="B96">
+        <v>1568.0513616600001</v>
+      </c>
+      <c r="C96">
         <v>323.32059007999999</v>
       </c>
-      <c r="C96">
-        <v>1568.0513616600001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>9600</v>
       </c>
       <c r="B97">
+        <v>1520.2101837499999</v>
+      </c>
+      <c r="C97">
         <v>342.10077142</v>
       </c>
-      <c r="C97">
-        <v>1520.2101837499999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>9700</v>
       </c>
       <c r="B98">
+        <v>1503.9383844700001</v>
+      </c>
+      <c r="C98">
         <v>396.36097413499999</v>
       </c>
-      <c r="C98">
-        <v>1503.9383844700001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>9800</v>
       </c>
       <c r="B99">
+        <v>1596.7880460900001</v>
+      </c>
+      <c r="C99">
         <v>395.922877691</v>
       </c>
-      <c r="C99">
-        <v>1596.7880460900001</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>1692.67825965</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>9900</v>
       </c>
       <c r="B100">
+        <v>1569.3366464799999</v>
+      </c>
+      <c r="C100">
         <v>378.20902885700002</v>
       </c>
-      <c r="C100">
-        <v>1569.3366464799999</v>
+      <c r="D100">
+        <v>1692.67825965</v>
       </c>
     </row>
   </sheetData>
